--- a/src/feedback_weights.xlsx
+++ b/src/feedback_weights.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3720" yWindow="3720" windowWidth="14385" windowHeight="11460" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4065" yWindow="4065" windowWidth="14385" windowHeight="11460" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A16:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -726,42 +726,158 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-05-14 09:36:04</t>
+          <t>2025-05-14 11:01:01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/laughter.png</t>
+          <t>/smile-removebg-preview.png</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-14 09:36:46</t>
+          <t>2025-05-14 11:07:36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>/laughter.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>very good service</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:14:22</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>/smile-removebg-preview.png</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:15:20</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>/smile-removebg-preview.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:17:57</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>/smile-removebg-preview.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:20:09</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>/smile-removebg-preview.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:20:16</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>/smile-removebg-preview.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:42:05</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>/smile-removebg-preview.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:49:01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>/smile-removebg-preview.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-05-14 11:50:22</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>/straight_face.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/feedback_weights.xlsx
+++ b/src/feedback_weights.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A24" sqref="A16:XFD24"/>
@@ -877,7 +877,22 @@
       <c r="C25" t="n">
         <v>3</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-05-14 12:31:32</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>/smile-removebg-preview.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/feedback_weights.xlsx
+++ b/src/feedback_weights.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A24" sqref="A16:XFD24"/>
@@ -892,7 +892,46 @@
       <c r="C26" t="n">
         <v>4</v>
       </c>
-      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-05-15 15:52:18</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>/laughter.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-05-15 16:01:06</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>/laughter.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>decent service</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
